--- a/outputs/results-18AI882024-05-11.xlsx
+++ b/outputs/results-18AI882024-05-11.xlsx
@@ -477,148 +477,170 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="85" customHeight="1">
+    <row r="2" ht="191.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>1DT20A1036</t>
+          <t>1DT20AI 021</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Sejal Kaur Virdi</t>
+          <t>Harshit Wadhwani</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>E
-A computer program is said to learn from experience.
-with respect to some task I and some performance
-measure P, if its performance on T, as measured by P.
-improves with Experience E.
-3 examples are:-
-→
-K
-→
-Detecting tumor in scans:
-This is semantic segmentation, where each pixel in
-the image is classified using CNN's.
-Summarizing long documents:
-Its a branch of NLP that summarizes long text.
-Object Detection,
-This is done using Image segmentation using Deep
-Learning.</t>
+          <t>gives
+is
+Machine learning is the branch of study that
+the ability to computers to learn A program
+said to lean from experience E with respect to
+some task I and some performance P if its performace
+on I improves with experience E.
+3examples are-
+Deleting tumors in brain scans, in this each bixes
+in the imag is classified using CNNS.
+Creating a chat bot, this involves many NLP components.
+I including Natural Language Understanding and question
+answering
+Summarizing long documents automatically this branch
+called text summarization again using the
+of NLP
+tools</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>The main challenges in Machine Learning is as follows:
-→ Nenrepresentative Training Datas
-It is
-necessary
-that the training data contains
-such samples as
-are needed for it to generalise.
-Otherwise it does not generalise well. If the sample
-is too small, we have sampling noise and large samples
-can be flawed. This is also called sampling bias.
-→ Insufficient Quality of Training Data:
-7
-St
-usually
-takes
-lots of data for Machine Learning
-algorithms to work properly. Even for simple things.
-a lot of examples are needed. Hence it is necessary
-to provide the ML algo with sufficient data.
-Poor-Quality Data:
-→ Peor-
-Data that
-ML
-contains errors, outliers and noise are
-considered to be poor Quality data. Such data makes.
-it difficult for
-algorithms to identify underlying
-patterns. Therefore it is necessary to clean up data
-before using for Machine Learning.</t>
+          <t>to work properly
+Less quantity of training Data, it takes a lot of data
+for most machine learning algorithms to work
+For simple problems you typically need.
+thousands of
+examples and for more complex problem you require
+millions of examples. Training Data should be representative
+of the
+want to
+generalize
+to
+new cases that
+you
+It is crucial to use a traing set that is representative
+of cases you want to generalize too .If the
+Sample is too small, you will have sampling . If the
+sample are lange samples can be non representative
+if the
+sampling method is flawed This is
+Sampling bias.
+Bad Quality Data
+Called
+if the training data
+is full of
+errors, outliers and noise, it will make it harder</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>→ Irrelevant Features:
--&gt;
-A ML algorithen performs well only if it gets good
-features and not virelevant ones. It is therefore
-necessary to
-come up with good set of training.
-features. This is called feature engineering. Feature
-engineering involves:.
-Feature selection, feature extraction and creating
-features.
-new
-→ Overfitting of Data:
-This is
-when, the model performs well on
-data but does not generalize the testing data well.
-training
-This happens if the model is too complex. It can
-be reduced by simplifying the model and increasing
-training data.
-→
-Underfilting of Data:
-This is when the model is unable to learn the
-underlying pattern. This happens when the model is
-too simple to predict. It can be reduced by selecting
-powerful model and feed better features.
-a more</t>
+          <t>_whether
+for the system to detect the underlying patterns,
+so your system is less likely to perform well.
+It is often well worth the efforts to spend.
+time cleaning up your training data. Most data
+scientist spend a significant part of their time
+doing just that example. If some instances are
+clearly outliers it may help to simply discand
+them or try to fix the essors man ually. If some
+instances are missing a few features, you must decide
+you
+want to ignore this attribute altogether,
+ignore these instances, fill in the missing values
+train one model with the feature and one model.
+without it. The following
+are a couple of examples of
+when you want to clean up training data I.
+Instanies are clearly outliers, it may help to simply
+If some
+I discard them or try to fix the emors manually If
+Some instances are missing a
+missing a few feature you.
+decide whether you want to ignore altogether fill in
+the missing values or train one model with the feature.
+_
+or
+must
+Irrelevant features - the system will only be capable of
+learning if the training data contains enough relevent
+features and not too many irrelevant.
+ones.
+A critical
+called.
+part in Me projects is comming up with good set of
+features to train on, this process is also
+feature engineering and involves the following
+feature selection, feature extraction, creating
+new features by gathering new data.
+overfitting - overfitting the training data In machine
+learning overfitting means that the model performs
+well on the training data, but it does not.
+generalize well overfitting happens when the
+model is too complex comparing to the
+and noisness of training data
+amount
+some solution to
+this one using a simple model with fewer parameters</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>• Voting classifier-
-way
-Suppose these are a few classifiers and each one.
-achienes different accuracy. Suppose there is Logistic
-Regression, SVM, Decision Tree and so on. A better
-to get the results with more accuracy is to aggregate
-the results of all classifiers and predict the case
-the most results. This is the hard-voting
-that
-get
-classifier. This methods.
-Bagging:
-gives
+          <t>reducing the number of attributes in data, gathering
+more training data and reducing the noise.
+Underfitting the training data., It is opposite of
+overfitting. It occurs when the
+model is too.
+simple to learn the underlying structure of
+data. main option of fixing this problem are
+Selecting more powerful model with more parameter,
+feed better feature to the algorithm and reduce
 a
-better
-accuracy.
-Either different classifiers can be used or predictors
-can be trained using same algorithm but train them
-on different random subsets of training set. When this
-sampling is performed with replacement, it is called
-- Bagging. Only Bagging allows training instances to</t>
+Constraints on the model...</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>be sampled several times for same predictor. After
-this aggregation
-can be applied to get the results.
-&gt; Out of Bag Evaluation:
-→
-some instances are sampled several times while
-not be sampled at all. A
-some instances.
-may
-Bagging Classifier by default samples only 'm'
-training instances
-with replacement. Since the
-seen to the predictor, they
-rest are never
-can be
-used for validation. This is called out-of-hox
-evaluations.</t>
+          <t>Voting classifier - suppose there are
+a
+few classifier
+and each one has.
+80% accuracy. there might
+be logistic regression Classifier, sum classifier
+KNN classifier and so on. a simple way to
+create a better classifies is
+is to aggregate the
+predictions of each classifier and predict
+class with
+most
+the
+votes. This majority vote
+Classifier is called Hand Voting This voting
+classifier achieves.
+a
+higher accuracy than the
+best classifier in the ensemble, even if each
+classifier is a weak learner the ensemble can
+still be strong, provided they are sufficiently
+diversed.
+-
+Bagging one way to get
+diverse set of
+classifier is using different training algorithms.
+another approach is to use the same training algorithm
+for every predictor and train them on different
+random subsets of traing sets when sampling
+is performed with replacement this method is
+called bagging and without replacement is called
+pasting, both allow training instanies to be sampled.</t>
         </is>
       </c>
     </row>
